--- a/cbrunner/Parameters/Parameters_WoodDensity.xlsx
+++ b/cbrunner/Parameters/Parameters_WoodDensity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D567624F-4694-4152-9B58-16985AF8A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5990F0B-1D0D-452C-9D61-8CA636317EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6372" yWindow="948" windowWidth="14304" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4392" yWindow="660" windowWidth="11904" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>BG</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>PLI</t>
+  </si>
+  <si>
+    <t>BC</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,10 +941,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B12" s="4">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -958,7 +961,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B13" s="4">
         <v>360</v>
@@ -978,7 +981,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>360</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>360</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4">
         <v>360</v>
@@ -1038,10 +1041,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4">
         <v>340</v>
@@ -1066,15 +1069,15 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4">
-        <v>500</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4">
         <v>500</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4">
         <v>500</v>
@@ -1090,23 +1093,23 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4">
-        <v>373</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4">
-        <v>600</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>600</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4">
         <v>600</v>
@@ -1122,7 +1125,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4">
         <v>600</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4">
         <v>600</v>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4">
         <v>600</v>
@@ -1146,7 +1149,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4">
         <v>600</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4">
         <v>600</v>
@@ -1162,23 +1165,23 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4">
         <v>450</v>
@@ -1186,23 +1189,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4">
         <v>500</v>
@@ -1210,39 +1213,39 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4">
-        <v>470</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4">
-        <v>540</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" s="4">
-        <v>470</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4">
         <v>500</v>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4">
         <v>500</v>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4">
         <v>500</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4">
         <v>500</v>
@@ -1274,15 +1277,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4">
         <v>550</v>
@@ -1290,7 +1293,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4">
         <v>550</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4">
         <v>550</v>
@@ -1306,7 +1309,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4">
         <v>550</v>
@@ -1314,15 +1317,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>466</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4">
         <v>466</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="4">
         <v>466</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4">
         <v>466</v>
@@ -1346,15 +1349,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="4">
         <v>500</v>
@@ -1362,23 +1365,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>410</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>500</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4">
         <v>500</v>
@@ -1386,15 +1389,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>410</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4">
         <v>410</v>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B61" s="4">
         <v>410</v>
@@ -1410,7 +1413,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4">
         <v>410</v>
@@ -1418,7 +1421,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B63" s="4">
         <v>410</v>
@@ -1426,7 +1429,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4">
         <v>410</v>
@@ -1434,31 +1437,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4">
-        <v>355</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>450</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B67" s="4">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
         <v>500</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>500</v>
@@ -1474,63 +1477,63 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B74" s="4">
-        <v>500</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B77" s="4">
         <v>350</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4">
         <v>350</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4">
         <v>350</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4">
         <v>350</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4">
         <v>350</v>
@@ -1570,7 +1573,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4">
         <v>350</v>
@@ -1578,15 +1581,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4">
         <v>500</v>
@@ -1594,7 +1597,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4">
         <v>500</v>
@@ -1602,7 +1605,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4">
         <v>500</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4">
         <v>500</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="4">
         <v>500</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="4">
         <v>500</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4">
         <v>500</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="4">
         <v>500</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4">
         <v>500</v>
@@ -1658,7 +1661,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4">
         <v>500</v>
@@ -1666,7 +1669,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4">
         <v>500</v>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B95" s="4">
         <v>500</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4">
         <v>500</v>
@@ -1690,7 +1693,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4">
         <v>500</v>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4">
         <v>500</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4">
         <v>500</v>
@@ -1714,23 +1717,23 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4">
-        <v>500</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="4">
         <v>500</v>
@@ -1738,9 +1741,17 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B104" s="4">
         <v>500</v>
       </c>
     </row>

--- a/cbrunner/Parameters/Parameters_WoodDensity.xlsx
+++ b/cbrunner/Parameters/Parameters_WoodDensity.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5990F0B-1D0D-452C-9D61-8CA636317EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE67F6-7C20-49C1-9E1B-AEADD584F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="660" windowWidth="11904" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zone" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -709,19 +709,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -1770,7 +1770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1782,7 +1782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
